--- a/trabalho.xlsx
+++ b/trabalho.xlsx
@@ -12,17 +12,17 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Plan1!$B$13:$C$13</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Plan1!$B$16:$C$16</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Plan1!$D$19</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Plan1!$D$18</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Plan1!$D$20</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Plan1!$D$21</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Plan1!$D$22</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Plan1!$D$22</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Plan1!$D$25</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Plan1!$D$23</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Plan1!$D$24</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Plan1!$D$21</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
@@ -32,19 +32,19 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Plan1!$B$14</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Plan1!$B$17</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel5" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Plan1!$E$19</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Plan1!$E$18</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Plan1!$E$20</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Plan1!$E$21</definedName>
-    <definedName name="solver_rhs5" localSheetId="0" hidden="1">Plan1!$E$22</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Plan1!$E$22</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Plan1!$E$25</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Plan1!$E$23</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Plan1!$E$24</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">Plan1!$E$21</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Sujeito a</t>
   </si>
@@ -102,29 +102,38 @@
     <t>Constante</t>
   </si>
   <si>
-    <t>Min Z = x1 + x2</t>
-  </si>
-  <si>
-    <t>5x1 +10x2 &gt;= 14000</t>
-  </si>
-  <si>
-    <t>4x1 +5x2/3 &gt;= 30000</t>
-  </si>
-  <si>
-    <t>10x1 +20x2/3 &gt;= 10000</t>
-  </si>
-  <si>
-    <t>20x1/3 +10x2 &gt;= 8000</t>
-  </si>
-  <si>
-    <t>x1 &gt;= 48000</t>
+    <t>0,1x1 + 0,15x2 &gt;= 10</t>
+  </si>
+  <si>
+    <t>0,15x1 + 0,1x2 &gt;=8</t>
+  </si>
+  <si>
+    <t>0,4x2 - 0,6x1 &lt;= 0</t>
+  </si>
+  <si>
+    <t>0,2x1 + 0,1x2 &gt;= 14</t>
+  </si>
+  <si>
+    <t>0,25x1 + 0,6x2 &gt;=  30</t>
+  </si>
+  <si>
+    <t>x1 = barril de óleo crú do Irã por dia</t>
+  </si>
+  <si>
+    <t>x2 = barril de óleo crú de Dubai por dia</t>
+  </si>
+  <si>
+    <t>x1,x2 &gt;= 0</t>
+  </si>
+  <si>
+    <t>Função Objetiva: Min Z = x1 + x2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +150,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -148,15 +184,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -190,26 +238,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -511,223 +597,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="12">
+        <v>54.999999999999993</v>
+      </c>
+      <c r="C16" s="12">
+        <v>30.000000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="11">
+        <f>(B15*B16)+(C15*C16)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="7">
+        <v>1</v>
+      </c>
+      <c r="B21" s="7">
+        <v>-0.6</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D21" s="7">
+        <f>(B21*B$16)+(C21*C$16)</f>
+        <v>-20.999999999999989</v>
+      </c>
+      <c r="E21" s="7">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="7">
+        <v>2</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D22" s="7">
+        <f>(B22*B$16)+(C22*C$16)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="B11" s="1" t="s">
+      <c r="E22" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="7">
+        <v>3</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D23" s="7">
+        <f>(B23*B$16)+(C23*C$16)</f>
+        <v>31.75</v>
+      </c>
+      <c r="E23" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="7">
         <v>4</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1">
-        <v>48000</v>
-      </c>
-      <c r="C13" s="1">
-        <v>-22600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="5" t="s">
+      <c r="B24" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="D24" s="7">
+        <f>(B24*B$16)+(C24*C$16)</f>
+        <v>10</v>
+      </c>
+      <c r="E24" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="7">
         <v>5</v>
       </c>
-      <c r="B14" s="6">
-        <f>(B12*B13)+(C12*C13)</f>
-        <v>25400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
+      <c r="B25" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D25" s="7">
+        <f>(B25*B$16)+(C25*C$16)</f>
+        <v>11.25</v>
+      </c>
+      <c r="E25" s="7">
         <v>8</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1">
-        <v>10</v>
-      </c>
-      <c r="D18" s="1">
-        <f>(B18*B$13)+(C18*C$13)</f>
-        <v>14000</v>
-      </c>
-      <c r="E18" s="1">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1">
-        <v>4</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1.6666666666700001</v>
-      </c>
-      <c r="D19" s="1">
-        <f>(B19*B$13)+(C19*C$13)</f>
-        <v>154333.33333325799</v>
-      </c>
-      <c r="E19" s="1">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>3</v>
-      </c>
-      <c r="B20" s="1">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1">
-        <v>6.6666666666700003</v>
-      </c>
-      <c r="D20" s="1">
-        <f>(B20*B$13)+(C20*C$13)</f>
-        <v>329333.33333325799</v>
-      </c>
-      <c r="E20" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1">
-        <v>6.6666666666700003</v>
-      </c>
-      <c r="C21" s="1">
-        <v>10</v>
-      </c>
-      <c r="D21" s="1">
-        <f>(B21*B$13)+(C21*C$13)</f>
-        <v>94000.000000160013</v>
-      </c>
-      <c r="E21" s="1">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <f>(B22*B$13)+(C22*C$13)</f>
-        <v>48000</v>
-      </c>
-      <c r="E22" s="1">
-        <v>48000</v>
       </c>
     </row>
   </sheetData>

--- a/trabalho.xlsx
+++ b/trabalho.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Sujeito a</t>
   </si>
@@ -127,13 +127,25 @@
   </si>
   <si>
     <t>Função Objetiva: Min Z = x1 + x2</t>
+  </si>
+  <si>
+    <t>Dual</t>
+  </si>
+  <si>
+    <t>Max L = 0y1 + 14y2 + 30y3 + 10y4 + 8y5</t>
+  </si>
+  <si>
+    <t>0,2y2 -0,6y1 + 0,25y3 + 0,1y4 + 0,15y5 &gt;= 1</t>
+  </si>
+  <si>
+    <t>0,4y1 + 0,1y2 + 0,6y3 + 0,15y4 + 0,1y5 &gt;= 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,14 +155,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -257,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -266,7 +270,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -277,7 +280,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -292,10 +295,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -600,94 +603,115 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.42578125" customWidth="1"/>
     <col min="2" max="2" width="35.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:5">
+      <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="13" t="s">
+    <row r="3" spans="1:5">
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="6" t="s">
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="14" t="s">
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="15" t="s">
+      <c r="C6" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="15" t="s">
+      <c r="C7" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="14" t="s">
+      <c r="C8" s="14"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="15" t="s">
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="15" t="s">
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="C11" s="14"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="12" t="s">
+    <row r="14" spans="1:5">
+      <c r="B14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:5">
       <c r="B15" s="1">
         <v>1</v>
       </c>
@@ -695,143 +719,143 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>54.999999999999993</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>30.000000000000007</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <f>(B15*B16)+(C15*C16)</f>
         <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>1</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>-0.6</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>0.4</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <f>(B21*B$16)+(C21*C$16)</f>
         <v>-20.999999999999989</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>2</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>0.2</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>0.1</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <f>(B22*B$16)+(C22*C$16)</f>
         <v>14</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>3</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>0.25</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>0.6</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <f>(B23*B$16)+(C23*C$16)</f>
         <v>31.75</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>4</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>0.1</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>0.15</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <f>(B24*B$16)+(C24*C$16)</f>
         <v>10</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>5</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>0.15</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>0.1</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <f>(B25*B$16)+(C25*C$16)</f>
         <v>11.25</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <v>8</v>
       </c>
     </row>

--- a/trabalho.xlsx
+++ b/trabalho.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Sujeito a</t>
   </si>
@@ -139,6 +139,21 @@
   </si>
   <si>
     <t>0,4y1 + 0,1y2 + 0,6y3 + 0,15y4 + 0,1y5 &gt;= 1</t>
+  </si>
+  <si>
+    <t>diesel</t>
+  </si>
+  <si>
+    <t>gasolina</t>
+  </si>
+  <si>
+    <t>lubrificante</t>
+  </si>
+  <si>
+    <t>combustível para jatos</t>
+  </si>
+  <si>
+    <t>óleo cru</t>
   </si>
 </sst>
 </file>
@@ -267,9 +282,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -301,6 +313,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,7 +616,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -616,84 +629,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="13"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
@@ -704,10 +729,10 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -723,139 +748,139 @@
       <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>54.999999999999993</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>30.000000000000007</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <f>(B15*B16)+(C15*C16)</f>
         <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>1</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>-0.6</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>0.4</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <f>(B21*B$16)+(C21*C$16)</f>
         <v>-20.999999999999989</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>2</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>0.2</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>0.1</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <f>(B22*B$16)+(C22*C$16)</f>
         <v>14</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>3</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>0.25</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>0.6</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <f>(B23*B$16)+(C23*C$16)</f>
         <v>31.75</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>4</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>0.1</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>0.15</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <f>(B24*B$16)+(C24*C$16)</f>
         <v>10</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>5</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>0.15</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>0.1</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <f>(B25*B$16)+(C25*C$16)</f>
         <v>11.25</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>8</v>
       </c>
     </row>
